--- a/currentTemplates/rdfMasterTemplate.xlsx
+++ b/currentTemplates/rdfMasterTemplate.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\02 CATALOGING\Instantiation uploads\nypr-archives-ingest-scripts\currentTemplates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A94747A-B4BD-4324-8704-4B7DD6C41A4B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44652658-E8F5-4486-A79B-533A8ACAECD7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10440" tabRatio="703" activeTab="3" xr2:uid="{D22D536D-03EF-4533-83EF-1BF9643EA422}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="703" activeTab="3" xr2:uid="{D22D536D-03EF-4533-83EF-1BF9643EA422}"/>
   </bookViews>
   <sheets>
-    <sheet name="masterRDF" sheetId="8" r:id="rId1"/>
-    <sheet name="01_Inventory" sheetId="12" r:id="rId2"/>
-    <sheet name="Example" sheetId="2" r:id="rId3"/>
-    <sheet name="02_FixMD" sheetId="13" r:id="rId4"/>
+    <sheet name="00_MasterData" sheetId="14" r:id="rId1"/>
+    <sheet name="Example" sheetId="2" r:id="rId2"/>
+    <sheet name="01_Inventory" sheetId="12" r:id="rId3"/>
+    <sheet name="02_FixMD" sheetId="8" r:id="rId4"/>
     <sheet name="instantiationIDs" sheetId="5" r:id="rId5"/>
     <sheet name="instructions" sheetId="7" r:id="rId6"/>
     <sheet name="vocabularies" sheetId="6" r:id="rId7"/>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="139">
   <si>
     <t>ns1:about</t>
   </si>
@@ -479,6 +479,30 @@
   </si>
   <si>
     <t>photoLocator</t>
+  </si>
+  <si>
+    <t>photoLocation</t>
+  </si>
+  <si>
+    <t>futureLocation</t>
+  </si>
+  <si>
+    <t>currentLocation</t>
+  </si>
+  <si>
+    <t>shipmentSendDate</t>
+  </si>
+  <si>
+    <t>shipmentReturnDate</t>
+  </si>
+  <si>
+    <t>binID</t>
+  </si>
+  <si>
+    <t>boxID</t>
+  </si>
+  <si>
+    <t>shipmentID</t>
   </si>
 </sst>
 </file>
@@ -538,7 +562,160 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="63">
+  <dxfs count="110">
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
@@ -574,18 +751,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
@@ -953,176 +1118,226 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{152F4DBB-82EC-4174-B546-903AE163E78E}" name="Table9" displayName="Table9" ref="N1:BF2" tableType="xml" totalsRowShown="0" headerRowDxfId="62" dataDxfId="61" connectionId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F5B8D297-B61D-44B7-97F3-B2353943E960}" name="Table92" displayName="Table92" ref="N1:BF2" totalsRowShown="0" headerRowDxfId="61" dataDxfId="60">
   <autoFilter ref="N1:BF2" xr:uid="{DBA4640A-ED60-420F-906F-CF4D7DD1EE4D}"/>
   <tableColumns count="45">
-    <tableColumn id="1" xr3:uid="{A580D164-B803-461C-9F4F-A5883098A8DC}" uniqueName="ns1:about" name="ns1:about" dataDxfId="60">
-      <xmlColumnPr mapId="3" xpath="/ns1:RDF/ns1:Description/@ns1:about" xmlDataType="string"/>
-    </tableColumn>
-    <tableColumn id="2" xr3:uid="{05AC7C08-38B5-4261-A443-BEA6080FEDDA}" uniqueName="ns13:toolkit" name="ns13:toolkit" dataDxfId="59">
-      <xmlColumnPr mapId="3" xpath="/ns1:RDF/ns1:Description/@ns13:toolkit" xmlDataType="string"/>
-    </tableColumn>
-    <tableColumn id="3" xr3:uid="{A5EA5A7D-DF33-4A97-82BB-0A7F0753F4DF}" uniqueName="ns9:FileName" name="ns9:FileName" dataDxfId="58">
-      <xmlColumnPr mapId="3" xpath="/ns1:RDF/ns1:Description/ns9:FileName" xmlDataType="string"/>
-    </tableColumn>
-    <tableColumn id="4" xr3:uid="{EA4A8834-6D73-4C7F-B6AF-389D2D43DD68}" uniqueName="ns9:Directory" name="ns9:Directory" dataDxfId="57">
-      <xmlColumnPr mapId="3" xpath="/ns1:RDF/ns1:Description/ns9:Directory" xmlDataType="string"/>
-    </tableColumn>
-    <tableColumn id="5" xr3:uid="{67463FDA-5FD6-4B14-9F81-FE55D0178052}" uniqueName="ns9:FileSize" name="ns9:FileSize" dataDxfId="56">
-      <xmlColumnPr mapId="3" xpath="/ns1:RDF/ns1:Description/ns9:FileSize" xmlDataType="string"/>
-    </tableColumn>
-    <tableColumn id="6" xr3:uid="{0C3060F6-F8A0-4D82-AAC7-1BDA75963948}" uniqueName="ns9:FileModifyDate" name="ns9:FileModifyDate" dataDxfId="55">
-      <xmlColumnPr mapId="3" xpath="/ns1:RDF/ns1:Description/ns9:FileModifyDate" xmlDataType="string"/>
-    </tableColumn>
-    <tableColumn id="7" xr3:uid="{D8247E8D-6713-454E-918C-65CF07DFD18E}" uniqueName="ns9:FileAccessDate" name="ns9:FileAccessDate" dataDxfId="54">
-      <xmlColumnPr mapId="3" xpath="/ns1:RDF/ns1:Description/ns9:FileAccessDate" xmlDataType="string"/>
-    </tableColumn>
-    <tableColumn id="8" xr3:uid="{314C7B67-1EA1-4F9B-9BA8-65CEF7058C26}" uniqueName="ns9:FileCreateDate" name="ns9:FileCreateDate" dataDxfId="53">
-      <xmlColumnPr mapId="3" xpath="/ns1:RDF/ns1:Description/ns9:FileCreateDate" xmlDataType="string"/>
-    </tableColumn>
-    <tableColumn id="9" xr3:uid="{FE9CC9E5-2BD9-46CA-8DDF-367714039F6E}" uniqueName="ns9:FilePermissions" name="ns9:FilePermissions" dataDxfId="52">
-      <xmlColumnPr mapId="3" xpath="/ns1:RDF/ns1:Description/ns9:FilePermissions" xmlDataType="string"/>
-    </tableColumn>
-    <tableColumn id="10" xr3:uid="{A745FD77-9ADB-44D6-8904-007E5A609840}" uniqueName="ns10:FileType" name="ns10:FileType" dataDxfId="51">
-      <xmlColumnPr mapId="3" xpath="/ns1:RDF/ns1:Description/ns10:FileType" xmlDataType="string"/>
-    </tableColumn>
-    <tableColumn id="11" xr3:uid="{BC259896-1D6F-4AE7-A726-B8834A69BBC2}" uniqueName="ns10:FileTypeExtension" name="ns10:FileTypeExtension" dataDxfId="50">
-      <xmlColumnPr mapId="3" xpath="/ns1:RDF/ns1:Description/ns10:FileTypeExtension" xmlDataType="string"/>
-    </tableColumn>
-    <tableColumn id="12" xr3:uid="{BBE38AEA-ECEB-4766-8AB0-933A72D382A8}" uniqueName="ns10:MIMEType" name="ns10:MIMEType" dataDxfId="49">
-      <xmlColumnPr mapId="3" xpath="/ns1:RDF/ns1:Description/ns10:MIMEType" xmlDataType="string"/>
-    </tableColumn>
-    <tableColumn id="13" xr3:uid="{39257707-B95F-45C9-AC76-F1FCA3BBF450}" uniqueName="ns8:Description" name="ns8:Description" dataDxfId="48">
-      <xmlColumnPr mapId="3" xpath="/ns1:RDF/ns1:Description/ns8:Description" xmlDataType="string"/>
-    </tableColumn>
-    <tableColumn id="14" xr3:uid="{9CA1E0C7-3686-4C63-B1BF-25AB0784699E}" uniqueName="ns8:Originator" name="ns8:Originator" dataDxfId="47">
-      <xmlColumnPr mapId="3" xpath="/ns1:RDF/ns1:Description/ns8:Originator" xmlDataType="string"/>
-    </tableColumn>
-    <tableColumn id="15" xr3:uid="{7087961F-8AA4-489C-9EF6-98485712B62A}" uniqueName="ns8:OriginatorReference" name="ns8:OriginatorReference" dataDxfId="46">
-      <xmlColumnPr mapId="3" xpath="/ns1:RDF/ns1:Description/ns8:OriginatorReference" xmlDataType="string"/>
-    </tableColumn>
-    <tableColumn id="16" xr3:uid="{C73D8355-013C-400C-A0A9-EFE01E3D050B}" uniqueName="ns8:Artist" name="ns8:Artist" dataDxfId="45">
-      <xmlColumnPr mapId="3" xpath="/ns1:RDF/ns1:Description/ns8:Artist" xmlDataType="anyURI"/>
-    </tableColumn>
-    <tableColumn id="17" xr3:uid="{D13DCDF0-0CC2-4BCB-AFDF-2CF798AFE524}" uniqueName="ns8:Commissioned" name="ns8:Commissioned" dataDxfId="44">
-      <xmlColumnPr mapId="3" xpath="/ns1:RDF/ns1:Description/ns8:Commissioned" xmlDataType="anyURI"/>
-    </tableColumn>
-    <tableColumn id="18" xr3:uid="{02063AF9-BF3F-4FF1-8D86-A9A5A1240A73}" uniqueName="ns8:DateCreated" name="ns8:DateCreated" dataDxfId="43">
-      <xmlColumnPr mapId="3" xpath="/ns1:RDF/ns1:Description/ns8:DateCreated" xmlDataType="date"/>
-    </tableColumn>
-    <tableColumn id="19" xr3:uid="{BB997E4E-ED1D-4A6D-8A24-A863681A2E20}" uniqueName="ns8:Keywords" name="ns8:Keywords" dataDxfId="42">
-      <xmlColumnPr mapId="3" xpath="/ns1:RDF/ns1:Description/ns8:Keywords" xmlDataType="anyURI"/>
-    </tableColumn>
-    <tableColumn id="20" xr3:uid="{48BC8FF1-7BFE-41C9-9C48-F8DC04E14800}" uniqueName="ns8:Subject" name="ns8:Subject" dataDxfId="41">
-      <xmlColumnPr mapId="3" xpath="/ns1:RDF/ns1:Description/ns8:Subject" xmlDataType="string"/>
-    </tableColumn>
-    <tableColumn id="21" xr3:uid="{5120FA96-3590-4F48-8545-6E4CC51A5B49}" uniqueName="ns8:Software" name="ns8:Software" dataDxfId="40">
-      <xmlColumnPr mapId="3" xpath="/ns1:RDF/ns1:Description/ns8:Software" xmlDataType="string"/>
-    </tableColumn>
-    <tableColumn id="22" xr3:uid="{58933FB6-0CDD-4BB3-837C-451A48F41091}" uniqueName="ns8:Source" name="ns8:Source" dataDxfId="39">
-      <xmlColumnPr mapId="3" xpath="/ns1:RDF/ns1:Description/ns8:Source" xmlDataType="anyURI"/>
-    </tableColumn>
-    <tableColumn id="23" xr3:uid="{6DB07D3F-F109-424F-9423-952C9C1F0F68}" uniqueName="ns8:ArchivalLocation" name="ns8:ArchivalLocation" dataDxfId="38">
-      <xmlColumnPr mapId="3" xpath="/ns1:RDF/ns1:Description/ns8:ArchivalLocation" xmlDataType="string"/>
-    </tableColumn>
-    <tableColumn id="24" xr3:uid="{32999CD4-C6BA-4922-B7AA-328EC1D95C5C}" uniqueName="ns8:Comment" name="ns8:Comment" dataDxfId="37">
-      <xmlColumnPr mapId="3" xpath="/ns1:RDF/ns1:Description/ns8:Comment" xmlDataType="string"/>
-    </tableColumn>
-    <tableColumn id="25" xr3:uid="{88B06FCA-C7DB-4AFE-8C8A-9156B064162B}" uniqueName="ns8:Copyright" name="ns8:Copyright" dataDxfId="36">
-      <xmlColumnPr mapId="3" xpath="/ns1:RDF/ns1:Description/ns8:Copyright" xmlDataType="string"/>
-    </tableColumn>
-    <tableColumn id="26" xr3:uid="{78765629-CBE4-402A-9D4E-E90C72C8BF39}" uniqueName="ns8:Engineer" name="ns8:Engineer" dataDxfId="35">
-      <xmlColumnPr mapId="3" xpath="/ns1:RDF/ns1:Description/ns8:Engineer" xmlDataType="string"/>
-    </tableColumn>
-    <tableColumn id="27" xr3:uid="{D13CD112-99D7-4A11-8383-F60CFEBAF2BC}" uniqueName="ns8:Genre" name="ns8:Genre" dataDxfId="34">
-      <xmlColumnPr mapId="3" xpath="/ns1:RDF/ns1:Description/ns8:Genre" xmlDataType="string"/>
-    </tableColumn>
-    <tableColumn id="28" xr3:uid="{13CC3D64-EF4F-4035-A512-E3D898AC83B6}" uniqueName="ns8:Medium" name="ns8:Medium" dataDxfId="33">
-      <xmlColumnPr mapId="3" xpath="/ns1:RDF/ns1:Description/ns8:Medium" xmlDataType="string"/>
-    </tableColumn>
-    <tableColumn id="29" xr3:uid="{869D406F-22DC-4641-B560-B1A0C69126F9}" uniqueName="ns8:Title" name="ns8:Title" dataDxfId="32">
-      <xmlColumnPr mapId="3" xpath="/ns1:RDF/ns1:Description/ns8:Title" xmlDataType="string"/>
-    </tableColumn>
-    <tableColumn id="30" xr3:uid="{58D32E4E-80AA-4C4D-A6A2-3AF4367E4DE0}" uniqueName="ns8:Product" name="ns8:Product" dataDxfId="31">
-      <xmlColumnPr mapId="3" xpath="/ns1:RDF/ns1:Description/ns8:Product" xmlDataType="string"/>
-    </tableColumn>
-    <tableColumn id="31" xr3:uid="{5638AC33-BE08-4273-999D-A24B3707E227}" uniqueName="ns8:SourceForm" name="ns8:SourceForm" dataDxfId="30">
-      <xmlColumnPr mapId="3" xpath="/ns1:RDF/ns1:Description/ns8:SourceForm" xmlDataType="string"/>
-    </tableColumn>
-    <tableColumn id="32" xr3:uid="{A594982E-7066-4E88-B5AE-E4151F893EB3}" uniqueName="ns8:Technician" name="ns8:Technician" dataDxfId="29">
-      <xmlColumnPr mapId="3" xpath="/ns1:RDF/ns1:Description/ns8:Technician" xmlDataType="string"/>
-    </tableColumn>
-    <tableColumn id="33" xr3:uid="{35EBD1ED-244E-47E6-9C98-3ABC122278CF}" uniqueName="ns8:DateTimeOriginal" name="ns8:DateTimeOriginal" dataDxfId="28">
-      <xmlColumnPr mapId="3" xpath="/ns1:RDF/ns1:Description/ns8:DateTimeOriginal" xmlDataType="string"/>
-    </tableColumn>
-    <tableColumn id="34" xr3:uid="{CF988176-F21D-4C27-B1EF-31F3407CAC41}" uniqueName="ns8:TimeReference" name="ns8:TimeReference" dataDxfId="27">
-      <xmlColumnPr mapId="3" xpath="/ns1:RDF/ns1:Description/ns8:TimeReference" xmlDataType="integer"/>
-    </tableColumn>
-    <tableColumn id="35" xr3:uid="{26010328-6E42-4439-BF63-DD7F3B70A7C1}" uniqueName="ns8:BWFVersion" name="ns8:BWFVersion" dataDxfId="26">
-      <xmlColumnPr mapId="3" xpath="/ns1:RDF/ns1:Description/ns8:BWFVersion" xmlDataType="integer"/>
-    </tableColumn>
-    <tableColumn id="36" xr3:uid="{AB650EDE-2128-4554-A891-3BFEDA57524E}" uniqueName="ns8:BWF_UMID" name="ns8:BWF_UMID" dataDxfId="25">
-      <xmlColumnPr mapId="3" xpath="/ns1:RDF/ns1:Description/ns8:BWF_UMID" xmlDataType="string"/>
-    </tableColumn>
-    <tableColumn id="37" xr3:uid="{9B11F7B5-85D0-4831-9969-88524ED96676}" uniqueName="ns8:CodingHistory" name="ns8:CodingHistory" dataDxfId="24">
-      <xmlColumnPr mapId="3" xpath="/ns1:RDF/ns1:Description/ns8:CodingHistory" xmlDataType="string"/>
-    </tableColumn>
-    <tableColumn id="38" xr3:uid="{E80F5603-E002-4881-A4D7-61B8634F3167}" uniqueName="ns8:Encoding" name="ns8:Encoding" dataDxfId="23">
-      <xmlColumnPr mapId="3" xpath="/ns1:RDF/ns1:Description/ns8:Encoding" xmlDataType="string"/>
-    </tableColumn>
-    <tableColumn id="39" xr3:uid="{A70BDCC2-C68F-426D-92CA-B611034913DF}" uniqueName="ns8:NumChannels" name="ns8:NumChannels" dataDxfId="22">
-      <xmlColumnPr mapId="3" xpath="/ns1:RDF/ns1:Description/ns8:NumChannels" xmlDataType="integer"/>
-    </tableColumn>
-    <tableColumn id="40" xr3:uid="{DDF1A5CE-EDDC-41FB-B95F-E50ED8B3845E}" uniqueName="ns8:SampleRate" name="ns8:SampleRate" dataDxfId="21">
-      <xmlColumnPr mapId="3" xpath="/ns1:RDF/ns1:Description/ns8:SampleRate" xmlDataType="integer"/>
-    </tableColumn>
-    <tableColumn id="41" xr3:uid="{1D03283B-E5E7-4894-8908-C876C1DAC7D8}" uniqueName="ns8:AvgBytesPerSec" name="ns8:AvgBytesPerSec" dataDxfId="20">
-      <xmlColumnPr mapId="3" xpath="/ns1:RDF/ns1:Description/ns8:AvgBytesPerSec" xmlDataType="integer"/>
-    </tableColumn>
-    <tableColumn id="42" xr3:uid="{0448BCE5-70E1-4FE2-9C3F-16E5116D8DDA}" uniqueName="ns8:BitsPerSample" name="ns8:BitsPerSample" dataDxfId="19">
-      <xmlColumnPr mapId="3" xpath="/ns1:RDF/ns1:Description/ns8:BitsPerSample" xmlDataType="integer"/>
-    </tableColumn>
-    <tableColumn id="45" xr3:uid="{3C9BC443-BA6F-4F1F-9E9A-409E4A2335CA}" uniqueName="ns6:Description" name="ns6:Description" dataDxfId="18">
-      <xmlColumnPr mapId="3" xpath="/ns1:RDF/ns1:Description/ns6:Description" xmlDataType="string"/>
-    </tableColumn>
-    <tableColumn id="46" xr3:uid="{3AE149FC-0C09-4666-84DB-428736C27850}" uniqueName="ns14:ImageSupplierImageID" name="ns14:ImageSupplierImageID" dataDxfId="17">
-      <xmlColumnPr mapId="3" xpath="/ns1:RDF/ns1:Description/ns14:ImageSupplierImageID" xmlDataType="string"/>
-    </tableColumn>
-    <tableColumn id="47" xr3:uid="{7F33D69E-0907-4583-A51D-4104B2F1DAA7}" uniqueName="ns12:Duration" name="ns12:Duration" dataDxfId="16">
-      <xmlColumnPr mapId="3" xpath="/ns1:RDF/ns1:Description/ns12:Duration" xmlDataType="string"/>
-    </tableColumn>
+    <tableColumn id="1" xr3:uid="{84AC3680-B818-46E9-BDDF-A3EF93F583DA}" name="ns1:about" dataDxfId="59"/>
+    <tableColumn id="2" xr3:uid="{555E78A8-0450-473A-AA14-7031723405DF}" name="ns13:toolkit" dataDxfId="58"/>
+    <tableColumn id="3" xr3:uid="{14DF793D-F35D-4D72-BD32-C07269818424}" name="ns9:FileName" dataDxfId="57"/>
+    <tableColumn id="4" xr3:uid="{AA5ACBE7-BC21-4294-B3FB-8DE9F2C71F5C}" name="ns9:Directory" dataDxfId="56"/>
+    <tableColumn id="5" xr3:uid="{B3C8E4BF-8614-4B00-995C-5EAD54FE285B}" name="ns9:FileSize" dataDxfId="55"/>
+    <tableColumn id="6" xr3:uid="{AA193ABC-C744-499A-AF6B-41B493117858}" name="ns9:FileModifyDate" dataDxfId="54"/>
+    <tableColumn id="7" xr3:uid="{21A52FD2-4F16-4326-B09D-2B6182F9DDA5}" name="ns9:FileAccessDate" dataDxfId="53"/>
+    <tableColumn id="8" xr3:uid="{301955F4-5866-4A8C-9828-324FFBB14376}" name="ns9:FileCreateDate" dataDxfId="52"/>
+    <tableColumn id="9" xr3:uid="{818119BC-289B-4F12-A8EE-706A13032A32}" name="ns9:FilePermissions" dataDxfId="51"/>
+    <tableColumn id="10" xr3:uid="{0365EBA5-01DF-4B5D-9501-C44963B80C46}" name="ns10:FileType" dataDxfId="50"/>
+    <tableColumn id="11" xr3:uid="{5B2DC416-5DE6-4B35-B152-49D3B675B031}" name="ns10:FileTypeExtension" dataDxfId="49"/>
+    <tableColumn id="12" xr3:uid="{960769D4-B1D1-4385-822B-4E78B88B7B6C}" name="ns10:MIMEType" dataDxfId="48"/>
+    <tableColumn id="13" xr3:uid="{F3F35979-AFE8-4B2C-A442-D424D1F5FA88}" name="ns8:Description" dataDxfId="47"/>
+    <tableColumn id="14" xr3:uid="{392D42CB-EA0E-43F0-8920-ABD08C579264}" name="ns8:Originator" dataDxfId="46"/>
+    <tableColumn id="15" xr3:uid="{5E6F7137-657C-41FF-BB89-3D3A904E3F15}" name="ns8:OriginatorReference" dataDxfId="45"/>
+    <tableColumn id="16" xr3:uid="{C252949A-FDE9-47AE-A261-8F678F6EF023}" name="ns8:Artist" dataDxfId="44"/>
+    <tableColumn id="17" xr3:uid="{99D1567D-BEAD-4DE4-81B1-2763ACB5640E}" name="ns8:Commissioned" dataDxfId="43"/>
+    <tableColumn id="18" xr3:uid="{20457787-E9B1-4B87-B26A-D08F8F5F288E}" name="ns8:DateCreated" dataDxfId="42"/>
+    <tableColumn id="19" xr3:uid="{FF856206-A27C-4184-947E-F8A3409FC987}" name="ns8:Keywords" dataDxfId="41"/>
+    <tableColumn id="20" xr3:uid="{55C4F58F-AF8D-4320-90B3-F6A10D930675}" name="ns8:Subject" dataDxfId="40"/>
+    <tableColumn id="21" xr3:uid="{DB22375E-DB09-49BC-AF9F-00B6D6DE8313}" name="ns8:Software" dataDxfId="39"/>
+    <tableColumn id="22" xr3:uid="{10656292-9695-4CA9-AB4D-CC76886BE4BC}" name="ns8:Source" dataDxfId="38"/>
+    <tableColumn id="23" xr3:uid="{C8C6413A-1FB7-4A8F-9748-EBBBFA52F888}" name="ns8:ArchivalLocation" dataDxfId="37"/>
+    <tableColumn id="24" xr3:uid="{FD5867F6-7FEB-46AD-910E-F5AF840FE10C}" name="ns8:Comment" dataDxfId="36"/>
+    <tableColumn id="25" xr3:uid="{1BFA4B4E-CFC1-4C43-9DF9-737B02498676}" name="ns8:Copyright" dataDxfId="35"/>
+    <tableColumn id="26" xr3:uid="{54BF07E3-6137-41E9-B763-9B5FB5CEE0EC}" name="ns8:Engineer" dataDxfId="34"/>
+    <tableColumn id="27" xr3:uid="{C901C0BF-CF6D-413C-AC28-C740E2C26255}" name="ns8:Genre" dataDxfId="33"/>
+    <tableColumn id="28" xr3:uid="{1A82BB1D-A422-4E4A-A31F-323E1593585E}" name="ns8:Medium" dataDxfId="32"/>
+    <tableColumn id="29" xr3:uid="{80F3CAE0-23C7-46D0-BE10-E49EC6290026}" name="ns8:Title" dataDxfId="31"/>
+    <tableColumn id="30" xr3:uid="{8899EB6B-EAD4-4F0B-9FB8-C31E12E2F0F2}" name="ns8:Product" dataDxfId="30"/>
+    <tableColumn id="31" xr3:uid="{52D4A082-E79A-424A-A9BF-A1028F563355}" name="ns8:SourceForm" dataDxfId="29"/>
+    <tableColumn id="32" xr3:uid="{A712999D-8892-4926-A8A7-108BD7B637A3}" name="ns8:Technician" dataDxfId="28"/>
+    <tableColumn id="33" xr3:uid="{E93EC693-3550-44C3-AC4C-5E39137FAE12}" name="ns8:DateTimeOriginal" dataDxfId="27"/>
+    <tableColumn id="34" xr3:uid="{4752B2BF-2AEE-4754-9BB2-F6182E1F892F}" name="ns8:TimeReference" dataDxfId="26"/>
+    <tableColumn id="35" xr3:uid="{3923428A-1650-440B-BD97-F44404EECA13}" name="ns8:BWFVersion" dataDxfId="25"/>
+    <tableColumn id="36" xr3:uid="{94473350-F58B-4F01-BD34-8BADCE99E8DC}" name="ns8:BWF_UMID" dataDxfId="24"/>
+    <tableColumn id="37" xr3:uid="{E3BF5021-62DB-4B48-BE9F-C6949A8E67A1}" name="ns8:CodingHistory" dataDxfId="23"/>
+    <tableColumn id="38" xr3:uid="{3B96C7B0-2D4E-46E9-8A94-6E264FA59A38}" name="ns8:Encoding" dataDxfId="22"/>
+    <tableColumn id="39" xr3:uid="{40EE75C2-3405-4DC0-A175-00E1EC4476B5}" name="ns8:NumChannels" dataDxfId="21"/>
+    <tableColumn id="40" xr3:uid="{462CA8E8-1DA9-424C-A843-67F58550147D}" name="ns8:SampleRate" dataDxfId="20"/>
+    <tableColumn id="41" xr3:uid="{452367F2-AF7F-4F8D-8976-D4A6D4688BF2}" name="ns8:AvgBytesPerSec" dataDxfId="19"/>
+    <tableColumn id="42" xr3:uid="{56C06A66-E2DE-4F21-8CA5-50873B0D9822}" name="ns8:BitsPerSample" dataDxfId="18"/>
+    <tableColumn id="45" xr3:uid="{64FB92C2-AC51-44EE-BE84-FAA0E897A3DE}" name="ns6:Description" dataDxfId="17"/>
+    <tableColumn id="46" xr3:uid="{E216F627-30BE-41B7-84FA-CD0F528A9491}" name="ns14:ImageSupplierImageID" dataDxfId="16"/>
+    <tableColumn id="47" xr3:uid="{983F0130-6BC7-46EA-8133-B6341865E6FD}" name="ns12:Duration" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{58EE3EDB-2EE9-41D7-B2DD-D62B12E6E8DE}" name="Table111" displayName="Table111" ref="A1:M2" tableType="xml" insertRow="1" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14" connectionId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0445CE99-DC86-4685-A3DF-1B4B786F25F0}" name="Table1113" displayName="Table1113" ref="A1:M2" insertRow="1" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
   <autoFilter ref="A1:M2" xr:uid="{7F6E844D-01BA-4C52-9E71-607021A40716}"/>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{AE7A3A3E-FEF7-4E50-AE78-63635D11553D}" uniqueName="instantiationID" name="instantiationID" dataDxfId="13">
-      <xmlColumnPr mapId="4" xpath="/instantiationIDs/instantiationID" xmlDataType="double"/>
-    </tableColumn>
-    <tableColumn id="2" xr3:uid="{F579EB87-213F-47BF-8889-A4CB9D1EEA4F}" uniqueName="format" name="format" dataDxfId="12">
-      <xmlColumnPr mapId="4" xpath="/instantiationIDs/instantiationID/@format" xmlDataType="string"/>
-    </tableColumn>
-    <tableColumn id="18" xr3:uid="{4F24F387-B82B-48C7-97F9-66E03F47B260}" uniqueName="18" name="location" dataDxfId="10"/>
-    <tableColumn id="19" xr3:uid="{7582DD9D-46D7-45DB-B2AE-6B718660D8E5}" uniqueName="19" name="title" dataDxfId="9"/>
-    <tableColumn id="20" xr3:uid="{14538894-9334-45F7-89F6-9CD39007C16E}" uniqueName="20" name="earliestDate" dataDxfId="8"/>
-    <tableColumn id="21" xr3:uid="{B26B4A75-0CDD-42D5-BE43-49468463C738}" uniqueName="21" name="url" dataDxfId="7"/>
-    <tableColumn id="22" xr3:uid="{8FAEACC3-FCB4-4E4F-8E55-FAE6B785AF16}" uniqueName="22" name="series" dataDxfId="6"/>
-    <tableColumn id="23" xr3:uid="{DC5B3CB5-BB31-49EC-8EA0-FC6ABF61F528}" uniqueName="23" name="collection" dataDxfId="5"/>
-    <tableColumn id="24" xr3:uid="{50A9081E-0BBE-4759-95BB-364D5F1577C8}" uniqueName="24" name="allDates" dataDxfId="4"/>
-    <tableColumn id="25" xr3:uid="{184A2C95-3314-4AF2-8D13-CBDE92B21B96}" uniqueName="25" name="otherIDs" dataDxfId="3"/>
-    <tableColumn id="28" xr3:uid="{10457911-A7B8-4C0B-A90D-14E88BFE20C2}" uniqueName="28" name="photoLocator" dataDxfId="0"/>
-    <tableColumn id="26" xr3:uid="{AC3A77EA-8968-4F1B-BAD1-6E9E0EC15279}" uniqueName="26" name="futureShelf" dataDxfId="2"/>
-    <tableColumn id="27" xr3:uid="{F0A027E8-A875-4852-91FC-C696F0860B26}" uniqueName="27" name="futureBox" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{759CE8EF-4705-4CA7-9E98-7C7AF1E8A3A1}" name="instantiationID" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{24F11AEC-A8D7-4E89-9557-657383C6E023}" name="format" dataDxfId="11"/>
+    <tableColumn id="18" xr3:uid="{B30E2AAF-1D86-4E21-9CE7-AAA86835D945}" name="location" dataDxfId="10"/>
+    <tableColumn id="19" xr3:uid="{57D867EF-5B64-425F-ACEF-F65F5678C159}" name="title" dataDxfId="9"/>
+    <tableColumn id="20" xr3:uid="{DFBB673C-8187-4B74-8B6B-770833313A6B}" name="earliestDate" dataDxfId="8"/>
+    <tableColumn id="21" xr3:uid="{8B33B58F-F358-491A-A023-D6C5CDF45AD1}" name="url" dataDxfId="7"/>
+    <tableColumn id="22" xr3:uid="{8108A980-58F1-4202-9CE2-D7253005D1F5}" name="series" dataDxfId="6"/>
+    <tableColumn id="23" xr3:uid="{25E297E4-772F-4135-9EC3-71CEC854D24D}" name="collection" dataDxfId="5"/>
+    <tableColumn id="24" xr3:uid="{E8FA4467-FFDA-43A0-AF23-D4D6736D3A99}" name="allDates" dataDxfId="4"/>
+    <tableColumn id="25" xr3:uid="{BF9E90CA-D525-4A3B-AAB5-A4225232C7A3}" name="otherIDs" dataDxfId="3"/>
+    <tableColumn id="28" xr3:uid="{FAA919DC-F11B-46E5-A251-AAFF973B5F4B}" name="photoLocator" dataDxfId="2"/>
+    <tableColumn id="26" xr3:uid="{F20260DB-1D2D-44DB-AF45-A0E4BF5A4178}" name="futureShelf" dataDxfId="1"/>
+    <tableColumn id="27" xr3:uid="{B530A3D3-B604-4F2E-A4C9-B0695BC04D07}" name="futureBox" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{152F4DBB-82EC-4174-B546-903AE163E78E}" name="Table9" displayName="Table9" ref="A1:AS2" tableType="xml" totalsRowShown="0" headerRowDxfId="109" dataDxfId="108" connectionId="2">
+  <autoFilter ref="A1:AS2" xr:uid="{DBA4640A-ED60-420F-906F-CF4D7DD1EE4D}"/>
+  <tableColumns count="45">
+    <tableColumn id="1" xr3:uid="{A580D164-B803-461C-9F4F-A5883098A8DC}" uniqueName="ns1:about" name="ns1:about" dataDxfId="107">
+      <xmlColumnPr mapId="3" xpath="/ns1:RDF/ns1:Description/@ns1:about" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="2" xr3:uid="{05AC7C08-38B5-4261-A443-BEA6080FEDDA}" uniqueName="ns13:toolkit" name="ns13:toolkit" dataDxfId="106">
+      <xmlColumnPr mapId="3" xpath="/ns1:RDF/ns1:Description/@ns13:toolkit" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{A5EA5A7D-DF33-4A97-82BB-0A7F0753F4DF}" uniqueName="ns9:FileName" name="ns9:FileName" dataDxfId="105">
+      <xmlColumnPr mapId="3" xpath="/ns1:RDF/ns1:Description/ns9:FileName" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{EA4A8834-6D73-4C7F-B6AF-389D2D43DD68}" uniqueName="ns9:Directory" name="ns9:Directory" dataDxfId="104">
+      <xmlColumnPr mapId="3" xpath="/ns1:RDF/ns1:Description/ns9:Directory" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{67463FDA-5FD6-4B14-9F81-FE55D0178052}" uniqueName="ns9:FileSize" name="ns9:FileSize" dataDxfId="103">
+      <xmlColumnPr mapId="3" xpath="/ns1:RDF/ns1:Description/ns9:FileSize" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{0C3060F6-F8A0-4D82-AAC7-1BDA75963948}" uniqueName="ns9:FileModifyDate" name="ns9:FileModifyDate" dataDxfId="102">
+      <xmlColumnPr mapId="3" xpath="/ns1:RDF/ns1:Description/ns9:FileModifyDate" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{D8247E8D-6713-454E-918C-65CF07DFD18E}" uniqueName="ns9:FileAccessDate" name="ns9:FileAccessDate" dataDxfId="101">
+      <xmlColumnPr mapId="3" xpath="/ns1:RDF/ns1:Description/ns9:FileAccessDate" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="8" xr3:uid="{314C7B67-1EA1-4F9B-9BA8-65CEF7058C26}" uniqueName="ns9:FileCreateDate" name="ns9:FileCreateDate" dataDxfId="100">
+      <xmlColumnPr mapId="3" xpath="/ns1:RDF/ns1:Description/ns9:FileCreateDate" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="9" xr3:uid="{FE9CC9E5-2BD9-46CA-8DDF-367714039F6E}" uniqueName="ns9:FilePermissions" name="ns9:FilePermissions" dataDxfId="99">
+      <xmlColumnPr mapId="3" xpath="/ns1:RDF/ns1:Description/ns9:FilePermissions" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="10" xr3:uid="{A745FD77-9ADB-44D6-8904-007E5A609840}" uniqueName="ns10:FileType" name="ns10:FileType" dataDxfId="98">
+      <xmlColumnPr mapId="3" xpath="/ns1:RDF/ns1:Description/ns10:FileType" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="11" xr3:uid="{BC259896-1D6F-4AE7-A726-B8834A69BBC2}" uniqueName="ns10:FileTypeExtension" name="ns10:FileTypeExtension" dataDxfId="97">
+      <xmlColumnPr mapId="3" xpath="/ns1:RDF/ns1:Description/ns10:FileTypeExtension" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="12" xr3:uid="{BBE38AEA-ECEB-4766-8AB0-933A72D382A8}" uniqueName="ns10:MIMEType" name="ns10:MIMEType" dataDxfId="96">
+      <xmlColumnPr mapId="3" xpath="/ns1:RDF/ns1:Description/ns10:MIMEType" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="13" xr3:uid="{39257707-B95F-45C9-AC76-F1FCA3BBF450}" uniqueName="ns8:Description" name="ns8:Description" dataDxfId="95">
+      <xmlColumnPr mapId="3" xpath="/ns1:RDF/ns1:Description/ns8:Description" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="14" xr3:uid="{9CA1E0C7-3686-4C63-B1BF-25AB0784699E}" uniqueName="ns8:Originator" name="ns8:Originator" dataDxfId="94">
+      <xmlColumnPr mapId="3" xpath="/ns1:RDF/ns1:Description/ns8:Originator" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="15" xr3:uid="{7087961F-8AA4-489C-9EF6-98485712B62A}" uniqueName="ns8:OriginatorReference" name="ns8:OriginatorReference" dataDxfId="93">
+      <xmlColumnPr mapId="3" xpath="/ns1:RDF/ns1:Description/ns8:OriginatorReference" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="16" xr3:uid="{C73D8355-013C-400C-A0A9-EFE01E3D050B}" uniqueName="ns8:Artist" name="ns8:Artist" dataDxfId="92">
+      <xmlColumnPr mapId="3" xpath="/ns1:RDF/ns1:Description/ns8:Artist" xmlDataType="anyURI"/>
+    </tableColumn>
+    <tableColumn id="17" xr3:uid="{D13DCDF0-0CC2-4BCB-AFDF-2CF798AFE524}" uniqueName="ns8:Commissioned" name="ns8:Commissioned" dataDxfId="91">
+      <xmlColumnPr mapId="3" xpath="/ns1:RDF/ns1:Description/ns8:Commissioned" xmlDataType="anyURI"/>
+    </tableColumn>
+    <tableColumn id="18" xr3:uid="{02063AF9-BF3F-4FF1-8D86-A9A5A1240A73}" uniqueName="ns8:DateCreated" name="ns8:DateCreated" dataDxfId="90">
+      <xmlColumnPr mapId="3" xpath="/ns1:RDF/ns1:Description/ns8:DateCreated" xmlDataType="date"/>
+    </tableColumn>
+    <tableColumn id="19" xr3:uid="{BB997E4E-ED1D-4A6D-8A24-A863681A2E20}" uniqueName="ns8:Keywords" name="ns8:Keywords" dataDxfId="89">
+      <xmlColumnPr mapId="3" xpath="/ns1:RDF/ns1:Description/ns8:Keywords" xmlDataType="anyURI"/>
+    </tableColumn>
+    <tableColumn id="20" xr3:uid="{48BC8FF1-7BFE-41C9-9C48-F8DC04E14800}" uniqueName="ns8:Subject" name="ns8:Subject" dataDxfId="88">
+      <xmlColumnPr mapId="3" xpath="/ns1:RDF/ns1:Description/ns8:Subject" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="21" xr3:uid="{5120FA96-3590-4F48-8545-6E4CC51A5B49}" uniqueName="ns8:Software" name="ns8:Software" dataDxfId="87">
+      <xmlColumnPr mapId="3" xpath="/ns1:RDF/ns1:Description/ns8:Software" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="22" xr3:uid="{58933FB6-0CDD-4BB3-837C-451A48F41091}" uniqueName="ns8:Source" name="ns8:Source" dataDxfId="86">
+      <xmlColumnPr mapId="3" xpath="/ns1:RDF/ns1:Description/ns8:Source" xmlDataType="anyURI"/>
+    </tableColumn>
+    <tableColumn id="23" xr3:uid="{6DB07D3F-F109-424F-9423-952C9C1F0F68}" uniqueName="ns8:ArchivalLocation" name="ns8:ArchivalLocation" dataDxfId="85">
+      <xmlColumnPr mapId="3" xpath="/ns1:RDF/ns1:Description/ns8:ArchivalLocation" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="24" xr3:uid="{32999CD4-C6BA-4922-B7AA-328EC1D95C5C}" uniqueName="ns8:Comment" name="ns8:Comment" dataDxfId="84">
+      <xmlColumnPr mapId="3" xpath="/ns1:RDF/ns1:Description/ns8:Comment" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="25" xr3:uid="{88B06FCA-C7DB-4AFE-8C8A-9156B064162B}" uniqueName="ns8:Copyright" name="ns8:Copyright" dataDxfId="83">
+      <xmlColumnPr mapId="3" xpath="/ns1:RDF/ns1:Description/ns8:Copyright" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="26" xr3:uid="{78765629-CBE4-402A-9D4E-E90C72C8BF39}" uniqueName="ns8:Engineer" name="ns8:Engineer" dataDxfId="82">
+      <xmlColumnPr mapId="3" xpath="/ns1:RDF/ns1:Description/ns8:Engineer" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="27" xr3:uid="{D13CD112-99D7-4A11-8383-F60CFEBAF2BC}" uniqueName="ns8:Genre" name="ns8:Genre" dataDxfId="81">
+      <xmlColumnPr mapId="3" xpath="/ns1:RDF/ns1:Description/ns8:Genre" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="28" xr3:uid="{13CC3D64-EF4F-4035-A512-E3D898AC83B6}" uniqueName="ns8:Medium" name="ns8:Medium" dataDxfId="80">
+      <xmlColumnPr mapId="3" xpath="/ns1:RDF/ns1:Description/ns8:Medium" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="29" xr3:uid="{869D406F-22DC-4641-B560-B1A0C69126F9}" uniqueName="ns8:Title" name="ns8:Title" dataDxfId="79">
+      <xmlColumnPr mapId="3" xpath="/ns1:RDF/ns1:Description/ns8:Title" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="30" xr3:uid="{58D32E4E-80AA-4C4D-A6A2-3AF4367E4DE0}" uniqueName="ns8:Product" name="ns8:Product" dataDxfId="78">
+      <xmlColumnPr mapId="3" xpath="/ns1:RDF/ns1:Description/ns8:Product" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="31" xr3:uid="{5638AC33-BE08-4273-999D-A24B3707E227}" uniqueName="ns8:SourceForm" name="ns8:SourceForm" dataDxfId="77">
+      <xmlColumnPr mapId="3" xpath="/ns1:RDF/ns1:Description/ns8:SourceForm" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="32" xr3:uid="{A594982E-7066-4E88-B5AE-E4151F893EB3}" uniqueName="ns8:Technician" name="ns8:Technician" dataDxfId="76">
+      <xmlColumnPr mapId="3" xpath="/ns1:RDF/ns1:Description/ns8:Technician" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="33" xr3:uid="{35EBD1ED-244E-47E6-9C98-3ABC122278CF}" uniqueName="ns8:DateTimeOriginal" name="ns8:DateTimeOriginal" dataDxfId="75">
+      <xmlColumnPr mapId="3" xpath="/ns1:RDF/ns1:Description/ns8:DateTimeOriginal" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="34" xr3:uid="{CF988176-F21D-4C27-B1EF-31F3407CAC41}" uniqueName="ns8:TimeReference" name="ns8:TimeReference" dataDxfId="74">
+      <xmlColumnPr mapId="3" xpath="/ns1:RDF/ns1:Description/ns8:TimeReference" xmlDataType="integer"/>
+    </tableColumn>
+    <tableColumn id="35" xr3:uid="{26010328-6E42-4439-BF63-DD7F3B70A7C1}" uniqueName="ns8:BWFVersion" name="ns8:BWFVersion" dataDxfId="73">
+      <xmlColumnPr mapId="3" xpath="/ns1:RDF/ns1:Description/ns8:BWFVersion" xmlDataType="integer"/>
+    </tableColumn>
+    <tableColumn id="36" xr3:uid="{AB650EDE-2128-4554-A891-3BFEDA57524E}" uniqueName="ns8:BWF_UMID" name="ns8:BWF_UMID" dataDxfId="72">
+      <xmlColumnPr mapId="3" xpath="/ns1:RDF/ns1:Description/ns8:BWF_UMID" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="37" xr3:uid="{9B11F7B5-85D0-4831-9969-88524ED96676}" uniqueName="ns8:CodingHistory" name="ns8:CodingHistory" dataDxfId="71">
+      <xmlColumnPr mapId="3" xpath="/ns1:RDF/ns1:Description/ns8:CodingHistory" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="38" xr3:uid="{E80F5603-E002-4881-A4D7-61B8634F3167}" uniqueName="ns8:Encoding" name="ns8:Encoding" dataDxfId="70">
+      <xmlColumnPr mapId="3" xpath="/ns1:RDF/ns1:Description/ns8:Encoding" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="39" xr3:uid="{A70BDCC2-C68F-426D-92CA-B611034913DF}" uniqueName="ns8:NumChannels" name="ns8:NumChannels" dataDxfId="69">
+      <xmlColumnPr mapId="3" xpath="/ns1:RDF/ns1:Description/ns8:NumChannels" xmlDataType="integer"/>
+    </tableColumn>
+    <tableColumn id="40" xr3:uid="{DDF1A5CE-EDDC-41FB-B95F-E50ED8B3845E}" uniqueName="ns8:SampleRate" name="ns8:SampleRate" dataDxfId="68">
+      <xmlColumnPr mapId="3" xpath="/ns1:RDF/ns1:Description/ns8:SampleRate" xmlDataType="integer"/>
+    </tableColumn>
+    <tableColumn id="41" xr3:uid="{1D03283B-E5E7-4894-8908-C876C1DAC7D8}" uniqueName="ns8:AvgBytesPerSec" name="ns8:AvgBytesPerSec" dataDxfId="67">
+      <xmlColumnPr mapId="3" xpath="/ns1:RDF/ns1:Description/ns8:AvgBytesPerSec" xmlDataType="integer"/>
+    </tableColumn>
+    <tableColumn id="42" xr3:uid="{0448BCE5-70E1-4FE2-9C3F-16E5116D8DDA}" uniqueName="ns8:BitsPerSample" name="ns8:BitsPerSample" dataDxfId="66">
+      <xmlColumnPr mapId="3" xpath="/ns1:RDF/ns1:Description/ns8:BitsPerSample" xmlDataType="integer"/>
+    </tableColumn>
+    <tableColumn id="45" xr3:uid="{3C9BC443-BA6F-4F1F-9E9A-409E4A2335CA}" uniqueName="ns6:Description" name="ns6:Description" dataDxfId="65">
+      <xmlColumnPr mapId="3" xpath="/ns1:RDF/ns1:Description/ns6:Description" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="46" xr3:uid="{3AE149FC-0C09-4666-84DB-428736C27850}" uniqueName="ns14:ImageSupplierImageID" name="ns14:ImageSupplierImageID" dataDxfId="64">
+      <xmlColumnPr mapId="3" xpath="/ns1:RDF/ns1:Description/ns14:ImageSupplierImageID" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="47" xr3:uid="{7F33D69E-0907-4583-A51D-4104B2F1DAA7}" uniqueName="ns12:Duration" name="ns12:Duration" dataDxfId="63">
+      <xmlColumnPr mapId="3" xpath="/ns1:RDF/ns1:Description/ns12:Duration" xmlDataType="string"/>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{A2E66EFD-4DDC-4BD4-B8C5-AED44F3C3B04}" name="Table1" displayName="Table1" ref="A1:B2" insertRow="1" totalsRowShown="0">
   <autoFilter ref="A1:B2" xr:uid="{C33A8AF7-B6D4-4C4A-B138-B8308E1B085D}"/>
   <tableColumns count="2">
@@ -1133,14 +1348,14 @@
 </table>
 </file>
 
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{5D1E2B19-8C39-4E3A-A0FA-50DF2B2D631A}" name="format" displayName="format" ref="A1:A31" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:A31" xr:uid="{221B5900-A88D-4E6B-9C5D-C153444136E4}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A31">
     <sortCondition ref="A1:A31"/>
   </sortState>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{C82B992E-A0B3-43B5-A398-30A2E780747E}" uniqueName="1" name="Element:Text" queryTableFieldId="1" dataDxfId="11"/>
+    <tableColumn id="1" xr3:uid="{C82B992E-A0B3-43B5-A398-30A2E780747E}" uniqueName="1" name="Element:Text" queryTableFieldId="1" dataDxfId="62"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1442,76 +1657,76 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45CF6150-5B4C-4370-88BD-95E6691BC622}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF625C72-F81B-4FCA-9FE6-CA2194CED492}">
   <dimension ref="A1:BF2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="BD2" sqref="BD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.453125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.54296875" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.81640625" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.1796875" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.54296875" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="15" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.7265625" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="21" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="17.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="17.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="20.453125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="21.1796875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="24.54296875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="17.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="17.1796875" style="1" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="25.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="20.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="18.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="21.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="17.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="22.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="20.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="25.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="11.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="20.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="18.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="15.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="13.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="14.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="12.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="21.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="15.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="15.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="14.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="12.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="14.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="10.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="13.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="17.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="16.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="22.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="20.7265625" style="1" bestFit="1" customWidth="1"/>
     <col min="48" max="48" width="18" style="1" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="17.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="19.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="19.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="17.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="21.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="17.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="19.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="14.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="19.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="17.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="21.26953125" style="1" bestFit="1" customWidth="1"/>
     <col min="55" max="55" width="20" style="1" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="17.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="28.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="59" max="16384" width="11.85546875" style="1"/>
+    <col min="56" max="56" width="17.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="28.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="15.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="59" max="16384" width="11.81640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>86</v>
       </c>
@@ -1687,7 +1902,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -1711,7 +1926,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{F561371C-BF36-486A-8A07-D9C502CAE1E4}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{0129390A-E75D-4C2B-A001-D2CBB7862328}">
           <x14:formula1>
             <xm:f>vocabularies!$A$2:$A$31</xm:f>
           </x14:formula1>
@@ -1724,18 +1939,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F05020F-896E-4447-A3D5-32141EA427B8}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7749DA7D-0BA9-4337-B89F-3A700811011F}">
   <dimension ref="A1:AQ3"/>
   <sheetViews>
@@ -1745,12 +1948,12 @@
       <selection pane="bottomLeft" activeCell="AJ2" sqref="AJ2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="24.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="24.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="16384" width="24.85546875" style="2"/>
+    <col min="1" max="16384" width="24.81640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:43" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1881,7 +2084,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:43" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:43" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>45</v>
       </c>
@@ -2018,15 +2221,276 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F05020F-896E-4447-A3D5-32141EA427B8}">
+  <dimension ref="A1:K1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.90625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.08984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.7265625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.36328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E1" t="s">
+        <v>137</v>
+      </c>
+      <c r="F1" t="s">
+        <v>138</v>
+      </c>
+      <c r="G1" t="s">
+        <v>133</v>
+      </c>
+      <c r="H1" t="s">
+        <v>131</v>
+      </c>
+      <c r="I1" t="s">
+        <v>132</v>
+      </c>
+      <c r="J1" t="s">
+        <v>134</v>
+      </c>
+      <c r="K1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98B7391A-B7EA-44A8-BD19-0B72196963EF}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45CF6150-5B4C-4370-88BD-95E6691BC622}">
+  <dimension ref="A1:AS2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M1" sqref="A1:M1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="11.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="20.453125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.1796875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24.54296875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="25.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="20.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="21.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="15.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="10.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="13.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="17.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="16.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="22.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="20.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="18" style="1" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="17.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="19.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="14.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="19.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="17.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="21.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="20" style="1" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="17.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="28.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="15.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="46" max="16384" width="11.81640625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -2038,13 +2502,13 @@
       <selection sqref="A1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" customWidth="1"/>
-    <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.26953125" customWidth="1"/>
+    <col min="2" max="2" width="9.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>86</v>
       </c>
@@ -2052,7 +2516,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B2" s="1"/>
     </row>
   </sheetData>
@@ -2082,12 +2546,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="144.140625" customWidth="1"/>
+    <col min="1" max="1" width="144.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="270" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" ht="246.5" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>119</v>
       </c>
@@ -2105,162 +2569,162 @@
       <selection activeCell="A25" sqref="A25:XFD25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>88</v>
       </c>
